--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2.311181333333333</v>
+      </c>
+      <c r="H2">
+        <v>6.933544</v>
+      </c>
+      <c r="I2">
+        <v>0.336172840858964</v>
+      </c>
+      <c r="J2">
+        <v>0.336172840858964</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>3.911257666666666</v>
-      </c>
-      <c r="H2">
-        <v>11.733773</v>
-      </c>
-      <c r="I2">
-        <v>0.4115343446855154</v>
-      </c>
-      <c r="J2">
-        <v>0.4115343446855154</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0.5692973333333333</v>
+        <v>0.06247066666666667</v>
       </c>
       <c r="N2">
-        <v>1.707892</v>
+        <v>0.187412</v>
       </c>
       <c r="O2">
-        <v>0.07854540531141245</v>
+        <v>0.009697282539039283</v>
       </c>
       <c r="P2">
-        <v>0.07854540531141245</v>
+        <v>0.009697282539039282</v>
       </c>
       <c r="Q2">
-        <v>2.226668559612889</v>
+        <v>0.1443810386808889</v>
       </c>
       <c r="R2">
-        <v>20.040017036516</v>
+        <v>1.299429348128</v>
       </c>
       <c r="S2">
-        <v>0.03232413190289032</v>
+        <v>0.003259963019760863</v>
       </c>
       <c r="T2">
-        <v>0.03232413190289032</v>
+        <v>0.003259963019760863</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.911257666666666</v>
+        <v>2.311181333333333</v>
       </c>
       <c r="H3">
-        <v>11.733773</v>
+        <v>6.933544</v>
       </c>
       <c r="I3">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="J3">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>10.153035</v>
       </c>
       <c r="O3">
-        <v>0.4669348232885666</v>
+        <v>0.5253497589468907</v>
       </c>
       <c r="P3">
-        <v>0.4669348232885665</v>
+        <v>0.5253497589468907</v>
       </c>
       <c r="Q3">
-        <v>13.237045327895</v>
+        <v>7.821834989559999</v>
       </c>
       <c r="R3">
-        <v>119.133407951055</v>
+        <v>70.39651490604</v>
       </c>
       <c r="S3">
-        <v>0.1921597165129072</v>
+        <v>0.1766083209097482</v>
       </c>
       <c r="T3">
-        <v>0.1921597165129071</v>
+        <v>0.1766083209097482</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.911257666666666</v>
+        <v>2.311181333333333</v>
       </c>
       <c r="H4">
-        <v>11.733773</v>
+        <v>6.933544</v>
       </c>
       <c r="I4">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="J4">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>3.294360666666666</v>
+        <v>2.995264</v>
       </c>
       <c r="N4">
-        <v>9.883082</v>
+        <v>8.985792</v>
       </c>
       <c r="O4">
-        <v>0.4545197714000211</v>
+        <v>0.46495295851407</v>
       </c>
       <c r="P4">
-        <v>0.4545197714000211</v>
+        <v>0.4649529585140699</v>
       </c>
       <c r="Q4">
-        <v>12.88509341426511</v>
+        <v>6.922598245205333</v>
       </c>
       <c r="R4">
-        <v>115.965840728386</v>
+        <v>62.303384206848</v>
       </c>
       <c r="S4">
-        <v>0.1870504962697179</v>
+        <v>0.1563045569294549</v>
       </c>
       <c r="T4">
-        <v>0.1870504962697179</v>
+        <v>0.1563045569294549</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>12.300544</v>
       </c>
       <c r="I5">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="J5">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.5692973333333333</v>
+        <v>0.06247066666666667</v>
       </c>
       <c r="N5">
-        <v>1.707892</v>
+        <v>0.187412</v>
       </c>
       <c r="O5">
-        <v>0.07854540531141245</v>
+        <v>0.009697282539039283</v>
       </c>
       <c r="P5">
-        <v>0.07854540531141245</v>
+        <v>0.009697282539039282</v>
       </c>
       <c r="Q5">
-        <v>2.334222299249778</v>
+        <v>0.2561410613475555</v>
       </c>
       <c r="R5">
-        <v>21.008000693248</v>
+        <v>2.305269552128</v>
       </c>
       <c r="S5">
-        <v>0.0338854694677753</v>
+        <v>0.005783379836190752</v>
       </c>
       <c r="T5">
-        <v>0.0338854694677753</v>
+        <v>0.005783379836190751</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>12.300544</v>
       </c>
       <c r="I6">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="J6">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>10.153035</v>
       </c>
       <c r="O6">
-        <v>0.4669348232885666</v>
+        <v>0.5253497589468907</v>
       </c>
       <c r="P6">
-        <v>0.4669348232885665</v>
+        <v>0.5253497589468907</v>
       </c>
       <c r="Q6">
         <v>13.87642819456</v>
@@ -818,10 +818,10 @@
         <v>124.88785375104</v>
       </c>
       <c r="S6">
-        <v>0.2014415182562797</v>
+        <v>0.3133142909479594</v>
       </c>
       <c r="T6">
-        <v>0.2014415182562797</v>
+        <v>0.3133142909479594</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>12.300544</v>
       </c>
       <c r="I7">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="J7">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>3.294360666666666</v>
+        <v>2.995264</v>
       </c>
       <c r="N7">
-        <v>9.883082</v>
+        <v>8.985792</v>
       </c>
       <c r="O7">
-        <v>0.4545197714000211</v>
+        <v>0.46495295851407</v>
       </c>
       <c r="P7">
-        <v>0.4545197714000211</v>
+        <v>0.4649529585140699</v>
       </c>
       <c r="Q7">
-        <v>13.50747611073422</v>
+        <v>12.28112554120533</v>
       </c>
       <c r="R7">
-        <v>121.567284996608</v>
+        <v>110.530129870848</v>
       </c>
       <c r="S7">
-        <v>0.1960855097152043</v>
+        <v>0.2772941341269725</v>
       </c>
       <c r="T7">
-        <v>0.1960855097152043</v>
+        <v>0.2772941341269725</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.492646666666667</v>
+        <v>0.4636166666666667</v>
       </c>
       <c r="H8">
-        <v>4.47794</v>
+        <v>1.39085</v>
       </c>
       <c r="I8">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="J8">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.5692973333333333</v>
+        <v>0.06247066666666667</v>
       </c>
       <c r="N8">
-        <v>1.707892</v>
+        <v>0.187412</v>
       </c>
       <c r="O8">
-        <v>0.07854540531141245</v>
+        <v>0.009697282539039283</v>
       </c>
       <c r="P8">
-        <v>0.07854540531141245</v>
+        <v>0.009697282539039282</v>
       </c>
       <c r="Q8">
-        <v>0.8497597669422222</v>
+        <v>0.02896244224444445</v>
       </c>
       <c r="R8">
-        <v>7.64783790248</v>
+        <v>0.2606619802</v>
       </c>
       <c r="S8">
-        <v>0.01233580394074683</v>
+        <v>0.0006539396830876674</v>
       </c>
       <c r="T8">
-        <v>0.01233580394074683</v>
+        <v>0.0006539396830876672</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.492646666666667</v>
+        <v>0.4636166666666667</v>
       </c>
       <c r="H9">
-        <v>4.47794</v>
+        <v>1.39085</v>
       </c>
       <c r="I9">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="J9">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>10.153035</v>
       </c>
       <c r="O9">
-        <v>0.4669348232885666</v>
+        <v>0.5253497589468907</v>
       </c>
       <c r="P9">
-        <v>0.4669348232885665</v>
+        <v>0.5253497589468907</v>
       </c>
       <c r="Q9">
-        <v>5.0516312831</v>
+        <v>1.56903874775</v>
       </c>
       <c r="R9">
-        <v>45.4646815479</v>
+        <v>14.12134872975</v>
       </c>
       <c r="S9">
-        <v>0.07333358851937971</v>
+        <v>0.03542714708918315</v>
       </c>
       <c r="T9">
-        <v>0.07333358851937971</v>
+        <v>0.03542714708918315</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.492646666666667</v>
+        <v>0.4636166666666667</v>
       </c>
       <c r="H10">
-        <v>4.47794</v>
+        <v>1.39085</v>
       </c>
       <c r="I10">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="J10">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>3.294360666666666</v>
+        <v>2.995264</v>
       </c>
       <c r="N10">
-        <v>9.883082</v>
+        <v>8.985792</v>
       </c>
       <c r="O10">
-        <v>0.4545197714000211</v>
+        <v>0.46495295851407</v>
       </c>
       <c r="P10">
-        <v>0.4545197714000211</v>
+        <v>0.4649529585140699</v>
       </c>
       <c r="Q10">
-        <v>4.917316467897778</v>
+        <v>1.388654311466667</v>
       </c>
       <c r="R10">
-        <v>44.25584821108</v>
+        <v>12.4978888032</v>
       </c>
       <c r="S10">
-        <v>0.07138376541509886</v>
+        <v>0.03135426745764251</v>
       </c>
       <c r="T10">
-        <v>0.07138376541509886</v>
+        <v>0.0313542674576425</v>
       </c>
     </row>
   </sheetData>
